--- a/excel_demo.xlsx
+++ b/excel_demo.xlsx
@@ -7,9 +7,10 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="testsheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="new title" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="testsheet00" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="testsheet01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="testsheet02" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,9 +19,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -50,9 +49,8 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -347,6 +345,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="001072BA"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -361,7 +360,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>haha</t>
+          <t>ws1haha</t>
         </is>
       </c>
     </row>
@@ -371,6 +370,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>123.11</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ws你好呀，我是小花</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B3:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ws2哈哈哈</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -386,43 +463,4 @@
   <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>123.11</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>你好</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>43678.85763250066</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>你好呀，我是小花</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>
--- a/excel_demo.xlsx
+++ b/excel_demo.xlsx
@@ -20,13 +20,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -422,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:B4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,6 +434,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
@@ -438,8 +444,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
-        <v>10</v>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>是10，哈哈哈</t>
+        </is>
       </c>
     </row>
   </sheetData>
